--- a/PCB/EasyBLDCV2_MCF8329/EasyBLDC_V2_BOM.xlsx
+++ b/PCB/EasyBLDCV2_MCF8329/EasyBLDC_V2_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\GitHub\EasyBLDC\PCB\EasyBLDCV2_MCF8329\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB6364D-B45D-4542-BA97-18BCCE0CDA34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE5445A-7554-4877-B469-5C72179A79C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12510" yWindow="8040" windowWidth="12780" windowHeight="8130" xr2:uid="{F345571B-0CB1-464A-83E4-BC2390DFD3DD}"/>
+    <workbookView xWindow="12510" yWindow="0" windowWidth="12780" windowHeight="16170" xr2:uid="{F345571B-0CB1-464A-83E4-BC2390DFD3DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="98">
   <si>
     <t>Designator</t>
   </si>
@@ -200,9 +200,6 @@
     <t>10159560-A00221RLF</t>
   </si>
   <si>
-    <t>TSM-105-01-T-SH</t>
-  </si>
-  <si>
     <t>CONN HEADER SMD R/A 5POS 2.54MM</t>
   </si>
   <si>
@@ -243,16 +240,112 @@
   </si>
   <si>
     <t>CSS2725FT1L00</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>RES, 10k, 1%, 1/8 W, 0603</t>
+  </si>
+  <si>
+    <t>R5, R6, R7, R8, R9, R10</t>
+  </si>
+  <si>
+    <t>RES, 10, 1%, 1/8 W, 0603</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>R11, R13, R16, R18</t>
+  </si>
+  <si>
+    <t>RES, 0, 1%, 1/8 W, 0603</t>
+  </si>
+  <si>
+    <t>R14, R15, R17, R19</t>
+  </si>
+  <si>
+    <t>5.1k</t>
+  </si>
+  <si>
+    <t>RES, 5.1k, 1%, 1/8 W, 0603</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>2k</t>
+  </si>
+  <si>
+    <t>RES, 2k, 1%, 1/8 W, 0603</t>
+  </si>
+  <si>
+    <t>R21, R22</t>
+  </si>
+  <si>
+    <t>RES, 890, 1%, 1/8 W, 0603</t>
+  </si>
+  <si>
+    <t>C0805C103K5RACTU</t>
+  </si>
+  <si>
+    <t>CL32B475KBUYNNE</t>
+  </si>
+  <si>
+    <t>CL21B474KBFNNNG</t>
+  </si>
+  <si>
+    <t>GMC55X7R106M50NT</t>
+  </si>
+  <si>
+    <t>CL10B104KB8NNNC</t>
+  </si>
+  <si>
+    <t>LTST-C171KRKT</t>
+  </si>
+  <si>
+    <t>732-61300511821-ND</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-0710RL</t>
+  </si>
+  <si>
+    <t>RC0603JR-070RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-075K1L</t>
+  </si>
+  <si>
+    <t>RC0603FR-072KL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07887RL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -287,8 +380,7 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -297,15 +389,16 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,225 +733,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DD42FD5-E1C9-4086-8DC2-859D2396D005}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.90625" style="7" customWidth="1"/>
-    <col min="4" max="4" width="67.36328125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="21" style="5" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.90625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="67.36328125" style="5" customWidth="1"/>
     <col min="5" max="5" width="22.36328125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="28.08984375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="28.08984375" style="2" customWidth="1"/>
     <col min="7" max="7" width="18.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>865080642006</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="7">
-        <v>805</v>
+      <c r="E4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="5">
         <v>3</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="7">
         <v>1210</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="5">
         <v>4</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7">
-        <v>603</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="7">
-        <v>603</v>
+      <c r="E7" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="7">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7" t="s">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="7">
-        <v>603</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="7">
-        <v>805</v>
+      <c r="E9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="7">
-        <v>1</v>
-      </c>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>38</v>
       </c>
-      <c r="E10" s="7">
-        <v>605</v>
-      </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D11" t="s">
@@ -867,38 +969,44 @@
       <c r="E11" s="7">
         <v>2220</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="7">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="7">
-        <v>603</v>
+      <c r="E12" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="5">
         <v>2</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>46</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F13" t="s">
@@ -906,13 +1014,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D14" t="s">
@@ -921,96 +1029,220 @@
       <c r="E14" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="D16" s="7" t="s">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="F17" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="D17" s="7" t="s">
+      <c r="B18" s="5">
+        <v>6</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="7">
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="5">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B20" s="5">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="5">
         <v>6</v>
       </c>
-      <c r="D18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>68</v>
+      <c r="C21" s="5">
+        <v>10</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="5">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B23" s="5">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2</v>
+      </c>
+      <c r="C25" s="5">
+        <v>890</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
